--- a/simulation_data/iterative_algorithm/i_error_level_5_percent_water_60.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_5_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>91.37276522251035</v>
+        <v>89.93228355487601</v>
       </c>
       <c r="D2" t="n">
-        <v>7.363596318386477</v>
+        <v>6.722165959913735</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.95294138080604</v>
+        <v>88.82339526944281</v>
       </c>
       <c r="D3" t="n">
-        <v>6.584198294269409</v>
+        <v>7.478488825027665</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.32474479153031</v>
+        <v>87.37069548173712</v>
       </c>
       <c r="D4" t="n">
-        <v>7.758534290431797</v>
+        <v>6.158794373840845</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.66373261080511</v>
+        <v>87.28256987620476</v>
       </c>
       <c r="D5" t="n">
-        <v>7.740405387990749</v>
+        <v>6.510462273420809</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.76544831919301</v>
+        <v>87.07434705264234</v>
       </c>
       <c r="D6" t="n">
-        <v>7.572009151180771</v>
+        <v>6.874762246442932</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.15474624354687</v>
+        <v>85.10472837005148</v>
       </c>
       <c r="D7" t="n">
-        <v>7.095685682269397</v>
+        <v>6.752758175183776</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.05579863559997</v>
+        <v>85.11128948648033</v>
       </c>
       <c r="D8" t="n">
-        <v>8.443988011796788</v>
+        <v>6.160722170224347</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.78384343551062</v>
+        <v>82.30776694779293</v>
       </c>
       <c r="D9" t="n">
-        <v>7.70151361403475</v>
+        <v>6.118580435322866</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.47914314236503</v>
+        <v>81.81580499687203</v>
       </c>
       <c r="D10" t="n">
-        <v>8.381197055647869</v>
+        <v>7.246297697939521</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.7165742510165</v>
+        <v>80.44799427214052</v>
       </c>
       <c r="D11" t="n">
-        <v>8.598130175856504</v>
+        <v>7.307467724548577</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.1756090779014</v>
+        <v>79.62347390471939</v>
       </c>
       <c r="D12" t="n">
-        <v>6.797274605843819</v>
+        <v>5.752059166483394</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.02499361318009</v>
+        <v>79.76382323226342</v>
       </c>
       <c r="D13" t="n">
-        <v>7.708350344265408</v>
+        <v>7.232384156565213</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>76.87690655144057</v>
+        <v>77.27408589357134</v>
       </c>
       <c r="D14" t="n">
-        <v>6.780951664499968</v>
+        <v>7.056457648335893</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.13713000659688</v>
+        <v>77.7019992344855</v>
       </c>
       <c r="D15" t="n">
-        <v>7.385614088109527</v>
+        <v>7.031454767782998</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.98098514130967</v>
+        <v>75.94567752191067</v>
       </c>
       <c r="D16" t="n">
-        <v>7.529149562197303</v>
+        <v>7.98044611844145</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.87070191487558</v>
+        <v>74.57012618762298</v>
       </c>
       <c r="D17" t="n">
-        <v>7.650986426799036</v>
+        <v>7.155417297622016</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.69850083950179</v>
+        <v>74.41067828478327</v>
       </c>
       <c r="D18" t="n">
-        <v>8.29752109652304</v>
+        <v>7.371475670731669</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>71.83424536216606</v>
+        <v>73.76968364235188</v>
       </c>
       <c r="D19" t="n">
-        <v>7.624394695906116</v>
+        <v>6.778882657490104</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.53648101668625</v>
+        <v>72.88216056314931</v>
       </c>
       <c r="D20" t="n">
-        <v>7.177415206952021</v>
+        <v>7.105323593394193</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>69.74718694604158</v>
+        <v>70.58810914712561</v>
       </c>
       <c r="D21" t="n">
-        <v>6.849492262613198</v>
+        <v>7.843040069162565</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.4689801268577</v>
+        <v>70.00230945874803</v>
       </c>
       <c r="D22" t="n">
-        <v>6.64426784641143</v>
+        <v>6.702060904590732</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.0515047551678</v>
+        <v>68.62658965967819</v>
       </c>
       <c r="D23" t="n">
-        <v>7.060600610509655</v>
+        <v>6.896346321880011</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.87813061432207</v>
+        <v>67.96827099303421</v>
       </c>
       <c r="D24" t="n">
-        <v>7.389378347471382</v>
+        <v>8.064025549506129</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.91554165295813</v>
+        <v>66.52764183141693</v>
       </c>
       <c r="D25" t="n">
-        <v>7.08453039002908</v>
+        <v>7.069626899674484</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.98015195634203</v>
+        <v>68.36140350076255</v>
       </c>
       <c r="D26" t="n">
-        <v>7.178829334160483</v>
+        <v>7.02176060229612</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>63.89165934418347</v>
+        <v>64.69902376468053</v>
       </c>
       <c r="D27" t="n">
-        <v>6.828794132720291</v>
+        <v>7.320984103986282</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>62.34909544902299</v>
+        <v>62.9339094157155</v>
       </c>
       <c r="D28" t="n">
-        <v>7.678596779241546</v>
+        <v>6.485775880469007</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.77478827600161</v>
+        <v>63.75450212582525</v>
       </c>
       <c r="D29" t="n">
-        <v>7.212613714386301</v>
+        <v>6.99729985108831</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.32617331772504</v>
+        <v>62.13996283955449</v>
       </c>
       <c r="D30" t="n">
-        <v>7.638875008765782</v>
+        <v>7.643123126778202</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.35621998009172</v>
+        <v>60.85404483073032</v>
       </c>
       <c r="D31" t="n">
-        <v>8.027532198874349</v>
+        <v>8.083057880667626</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.40846899031837</v>
+        <v>60.3719413840948</v>
       </c>
       <c r="D32" t="n">
-        <v>7.583902217689567</v>
+        <v>7.370079690302926</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.4600768632264</v>
+        <v>58.92371529253951</v>
       </c>
       <c r="D33" t="n">
-        <v>7.745539801698585</v>
+        <v>7.064785115943156</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.03910502041962</v>
+        <v>58.12674206471379</v>
       </c>
       <c r="D34" t="n">
-        <v>7.058933042501705</v>
+        <v>7.705542078517992</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.47529552874378</v>
+        <v>57.04934804623898</v>
       </c>
       <c r="D35" t="n">
-        <v>7.709659233042507</v>
+        <v>7.303324962459191</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.63431578110081</v>
+        <v>55.24978559361544</v>
       </c>
       <c r="D36" t="n">
-        <v>7.269295093677929</v>
+        <v>8.151058222460426</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.658203205181</v>
+        <v>55.08929066965486</v>
       </c>
       <c r="D37" t="n">
-        <v>7.004624425582268</v>
+        <v>7.300895222901672</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.49906044067556</v>
+        <v>54.50984493785966</v>
       </c>
       <c r="D38" t="n">
-        <v>7.189009101143539</v>
+        <v>6.668372165254809</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.78571308579821</v>
+        <v>52.447713703737</v>
       </c>
       <c r="D39" t="n">
-        <v>8.13894508824596</v>
+        <v>7.180535659876035</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.79109190646669</v>
+        <v>51.63424197992993</v>
       </c>
       <c r="D40" t="n">
-        <v>8.787512577749634</v>
+        <v>8.04587527258038</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.47679427846771</v>
+        <v>50.15629280619324</v>
       </c>
       <c r="D41" t="n">
-        <v>7.716527373101052</v>
+        <v>7.475612422669423</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.32839550348562</v>
+        <v>50.57588415161342</v>
       </c>
       <c r="D42" t="n">
-        <v>8.202389287834761</v>
+        <v>7.243020468964409</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.70533398010229</v>
+        <v>49.09738261071676</v>
       </c>
       <c r="D43" t="n">
-        <v>7.24174354211197</v>
+        <v>8.004431415649348</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.662820700278</v>
+        <v>48.84866399550463</v>
       </c>
       <c r="D44" t="n">
-        <v>8.435675767117058</v>
+        <v>6.921387145414411</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.30330783129656</v>
+        <v>46.83463925972372</v>
       </c>
       <c r="D45" t="n">
-        <v>6.829812677785574</v>
+        <v>7.337302977633881</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.81219194519998</v>
+        <v>46.37218025903687</v>
       </c>
       <c r="D46" t="n">
-        <v>7.547781840006969</v>
+        <v>7.336524700148153</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.13437640750848</v>
+        <v>45.6403614464951</v>
       </c>
       <c r="D47" t="n">
-        <v>7.013519838530703</v>
+        <v>7.139354196874977</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.75827182332734</v>
+        <v>43.6117809839401</v>
       </c>
       <c r="D48" t="n">
-        <v>7.34750769786849</v>
+        <v>7.400115427899936</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.03056625200757</v>
+        <v>42.88948185419412</v>
       </c>
       <c r="D49" t="n">
-        <v>7.878337703536518</v>
+        <v>7.08940419391186</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.97050632448435</v>
+        <v>41.00537670278528</v>
       </c>
       <c r="D50" t="n">
-        <v>7.661943477426552</v>
+        <v>7.416842504478098</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.90230773342258</v>
+        <v>41.02121441320212</v>
       </c>
       <c r="D51" t="n">
-        <v>7.569362042740652</v>
+        <v>6.320014801754312</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.9687473525205</v>
+        <v>39.16931430165273</v>
       </c>
       <c r="D52" t="n">
-        <v>7.224390948323859</v>
+        <v>7.362046761493072</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.63040703335419</v>
+        <v>39.12509051222812</v>
       </c>
       <c r="D53" t="n">
-        <v>6.488565061324247</v>
+        <v>7.932908977524744</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.03932051687494</v>
+        <v>38.63120909143131</v>
       </c>
       <c r="D54" t="n">
-        <v>7.202155289859074</v>
+        <v>6.198113386647012</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.39679412574335</v>
+        <v>35.77860294245126</v>
       </c>
       <c r="D55" t="n">
-        <v>6.950622303353124</v>
+        <v>8.165177373362594</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.54342182611667</v>
+        <v>36.13031810366675</v>
       </c>
       <c r="D56" t="n">
-        <v>8.427683293765833</v>
+        <v>6.123981372679892</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.2847511529912</v>
+        <v>34.6722606769788</v>
       </c>
       <c r="D57" t="n">
-        <v>7.136827199894151</v>
+        <v>7.18141508433191</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>35.24832767672618</v>
+        <v>31.84910762471824</v>
       </c>
       <c r="D58" t="n">
-        <v>7.022100580345768</v>
+        <v>6.868877535752552</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.20799478619235</v>
+        <v>32.54982677558742</v>
       </c>
       <c r="D59" t="n">
-        <v>6.036492033505076</v>
+        <v>7.310939076882824</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.59691289784097</v>
+        <v>31.13341932657548</v>
       </c>
       <c r="D60" t="n">
-        <v>6.853733990812644</v>
+        <v>7.40930956208424</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.58958225761939</v>
+        <v>31.39782482545971</v>
       </c>
       <c r="D61" t="n">
-        <v>7.258773273500098</v>
+        <v>7.248818175200604</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.29591534581953</v>
+        <v>29.77908254118223</v>
       </c>
       <c r="D62" t="n">
-        <v>6.788916554952616</v>
+        <v>7.16717140739378</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.02003916772036</v>
+        <v>29.00384396782463</v>
       </c>
       <c r="D63" t="n">
-        <v>7.050101413251777</v>
+        <v>7.2694354298497</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.42281822622456</v>
+        <v>27.9248860498501</v>
       </c>
       <c r="D64" t="n">
-        <v>7.429397253640002</v>
+        <v>7.203696421890645</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.81035540807776</v>
+        <v>26.80416177852518</v>
       </c>
       <c r="D65" t="n">
-        <v>7.499892724161335</v>
+        <v>7.501258907858774</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.18616988688082</v>
+        <v>25.97519375428698</v>
       </c>
       <c r="D66" t="n">
-        <v>7.358381689500246</v>
+        <v>8.171713635850553</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.52206704075307</v>
+        <v>25.34843446866409</v>
       </c>
       <c r="D67" t="n">
-        <v>7.207087294470775</v>
+        <v>7.484960102140059</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.74566807563572</v>
+        <v>22.65678969929549</v>
       </c>
       <c r="D68" t="n">
-        <v>6.868334775257288</v>
+        <v>7.027672544928451</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.21120693702126</v>
+        <v>22.47891630873601</v>
       </c>
       <c r="D69" t="n">
-        <v>6.715891817724351</v>
+        <v>7.643575486165757</v>
       </c>
     </row>
   </sheetData>
